--- a/Test_Case_3/test_1_50/battery.xlsx
+++ b/Test_Case_3/test_1_50/battery.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\test_1_dl_aug6_2\pollock_88_modpath_Copy\test_1_50\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\pollock_88_modpath\Test_Case_3\test_1_50\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043FCB65-AEBA-4A00-85C9-74A591389C1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD62941-143A-4C03-A742-AA287B2BC769}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404" xr2:uid="{2BDB1B7C-ED75-4D0A-B416-52AC30DD0584}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,12 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>Pumping rate (gpm)</t>
-  </si>
-  <si>
-    <t>Pumping rate (cubic feet per day)</t>
   </si>
   <si>
     <t>analytical_xstag</t>
@@ -90,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,16 +96,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -115,15 +413,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -138,27 +630,1177 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent_difference_xstag</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-7.7284133969593301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.26032844175867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.55391264139308805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.6431326543407003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-14.039003160726001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-23.228793538070001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-35.488958089457398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8792-479E-AB9E-F076E20092A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent_difference_ymax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.8197297615583699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.791217730940399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.956312326210901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.015497782111598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.975196047075698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.839815713744699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.6142260266706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8792-479E-AB9E-F076E20092A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent_difference_ymin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.0354350069411105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.0057675311699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.170905336824999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.230308480528301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.190284005433501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.0552162938991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.829923564421701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8792-479E-AB9E-F076E20092A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2027535903"/>
+        <c:axId val="2067821471"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2027535903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2067821471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2067821471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2027535903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5B2C7D0-B482-4823-B1A6-FCEBF7E5351E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>49718</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>336008</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161290</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>194394</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72BD4F14-6BF3-45A6-9B48-79B182DF211D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A991EF-2084-48F7-B0E6-BFB059112EBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -174,8 +1816,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="624840" y="1695638"/>
-          <a:ext cx="4618448" cy="2489012"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11776794" cy="5753100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>68894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D8C783-D284-4AA5-A0A8-8875D9A511ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12700" y="5930900"/>
+          <a:ext cx="11557000" cy="6228394"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -484,19 +2170,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FB9D6F-7BBA-4622-A09A-50BBA4D90A28}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,186 +2220,282 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2.5</v>
       </c>
-      <c r="B2">
-        <v>481.25</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="5">
         <v>51.087847075914297</v>
       </c>
-      <c r="D2">
+      <c r="C2" s="5">
         <v>55.194829378800897</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="5">
         <v>-7.7284133969593301</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5">
         <v>160.49720506141099</v>
       </c>
-      <c r="H2">
+      <c r="G2" s="5">
         <v>148.41899889199999</v>
       </c>
-      <c r="I2">
+      <c r="H2" s="5">
         <v>7.8197297615583699</v>
       </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2">
+      <c r="I2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="5">
         <v>-148.098693624899</v>
       </c>
-      <c r="L2">
+      <c r="K2" s="5">
         <v>8.0354350069411105</v>
       </c>
+      <c r="L2" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="M2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>25</v>
       </c>
       <c r="B3">
-        <v>4812.5</v>
+        <v>510.878470759143</v>
       </c>
       <c r="C3">
-        <v>510.878470759143</v>
+        <v>489.567332214901</v>
       </c>
       <c r="D3">
-        <v>489.567332214901</v>
-      </c>
-      <c r="E3">
         <v>4.26032844175867</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>1604.97205061411</v>
       </c>
       <c r="G3">
-        <v>1604.97205061411</v>
+        <v>1440.64259669579</v>
       </c>
       <c r="H3">
-        <v>1440.64259669579</v>
-      </c>
-      <c r="I3">
         <v>10.791217730940399</v>
       </c>
-      <c r="J3" t="s">
-        <v>13</v>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>-1437.54582819604</v>
       </c>
       <c r="K3">
-        <v>-1437.54582819604</v>
-      </c>
-      <c r="L3">
         <v>11.0057675311699</v>
       </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
       <c r="M3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>51.9</v>
-      </c>
-      <c r="B4">
-        <v>10000</v>
-      </c>
-      <c r="C4">
-        <v>1061.56572724533</v>
-      </c>
-      <c r="D4">
-        <v>1059.89996477419</v>
-      </c>
-      <c r="E4">
-        <v>0.157038831916818</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>3335.0070900166302</v>
-      </c>
-      <c r="H4">
-        <v>2864.3887158010002</v>
-      </c>
-      <c r="I4">
-        <v>15.182717443980501</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4">
-        <v>-2858.2159568308198</v>
-      </c>
-      <c r="L4">
-        <v>15.3971891397813</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" t="s">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1021.75694151828</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1027.4323006474899</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-0.55391264139308805</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3209.94410122822</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2791.1765319114002</v>
+      </c>
+      <c r="H4" s="3">
+        <v>13.956312326210901</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3">
+        <v>-2785.16358378617</v>
+      </c>
+      <c r="K4" s="3">
+        <v>14.170905336824999</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1532.6354122774301</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1637.948458504</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-6.6431326543407003</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4814.9161518423398</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4059.8715035104901</v>
+      </c>
+      <c r="H5" s="2">
+        <v>17.015497782111598</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2">
+        <v>-4051.0955672800501</v>
+      </c>
+      <c r="K5" s="2">
+        <v>17.230308480528301</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2043.51388303657</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2352.0613564374999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-14.039003160726001</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6419.88820245645</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5253.9519719286</v>
+      </c>
+      <c r="H6" s="1">
+        <v>19.975196047075698</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-5242.5486420285297</v>
+      </c>
+      <c r="K6" s="1">
+        <v>20.190284005433501</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>125</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2554.3923537957098</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3225.7172125115899</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-23.228793538070001</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4">
+        <v>8024.8602530705602</v>
+      </c>
+      <c r="G7" s="4">
+        <v>6379.8550396025003</v>
+      </c>
+      <c r="H7" s="4">
+        <v>22.839815713744699</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="4">
+        <v>-6365.9446541716898</v>
+      </c>
+      <c r="K7" s="4">
+        <v>23.0552162938991</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>150</v>
       </c>
-      <c r="B5">
-        <v>28875</v>
-      </c>
-      <c r="C5">
+      <c r="B8">
         <v>3065.2708245548602</v>
       </c>
-      <c r="D5">
+      <c r="C8">
         <v>4387.7749745756</v>
       </c>
-      <c r="E5">
+      <c r="D8">
         <v>-35.488958089457398</v>
       </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5">
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
         <v>9629.8323036846796</v>
       </c>
-      <c r="H5">
+      <c r="G8">
         <v>7443.2618416221003</v>
       </c>
-      <c r="I5">
+      <c r="H8">
         <v>25.6142260266706</v>
       </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5">
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8">
         <v>-7426.9547716341604</v>
       </c>
-      <c r="L5">
+      <c r="K8">
         <v>25.829923564421701</v>
       </c>
-      <c r="M5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" t="s">
-        <v>15</v>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -721,4 +2503,30 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E709668C-C163-4301-8CAD-2DE12F27A693}">
+  <dimension ref="U2:U36"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AA32" sqref="AA32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U36">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>